--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="13965" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13965" windowHeight="11670"/>
+    <workbookView windowWidth="12270" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>50,50</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>队友池子</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1189,10 +1201,26 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="2"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>队友属性池子</t>
+  </si>
+  <si>
+    <t>40001</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1232,10 +1241,26 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="2"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14910" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>40001</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>升级测试池子</t>
+  </si>
+  <si>
+    <t>90001</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1272,10 +1281,26 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14910" windowHeight="12000"/>
+    <workbookView windowWidth="15360" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -112,7 +112,16 @@
     <t>队友属性池子</t>
   </si>
   <si>
-    <t>40001</t>
+    <t>40011</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>队长属性池子</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
   <si>
     <t>9001</t>
@@ -1101,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1276,29 +1285,55 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="12105"/>
+    <workbookView windowWidth="16815" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>50000</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>战银池子</t>
+  </si>
+  <si>
+    <t>60001</t>
   </si>
   <si>
     <t>9001</t>
@@ -1110,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1311,29 +1320,55 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16815" windowHeight="12105"/>
+    <workbookView windowWidth="19035" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>90001</t>
+  </si>
+  <si>
+    <t>9002</t>
+  </si>
+  <si>
+    <t>专属技能升级测试池子</t>
+  </si>
+  <si>
+    <t>90002</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1369,6 +1378,27 @@
         <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10395"/>
+    <workbookView windowWidth="18225" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>专属技能升级测试池子</t>
   </si>
   <si>
-    <t>90002</t>
+    <t>10002</t>
   </si>
 </sst>
 </file>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10395"/>
+    <workbookView windowWidth="14415" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>10002</t>
+  </si>
+  <si>
+    <t>9008</t>
+  </si>
+  <si>
+    <t>技能升级测试池子</t>
+  </si>
+  <si>
+    <t>10010</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1399,6 +1408,27 @@
         <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="10395"/>
+    <workbookView windowWidth="16125" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1139,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10395"/>
+    <workbookView windowWidth="15810" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -94,6 +94,18 @@
     <t>50,50</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>道具池子</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>4000</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
   </si>
   <si>
     <t>40000</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>4001</t>
@@ -1137,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1286,7 +1295,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,57 +1321,57 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="3:5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="2"/>
@@ -1390,45 +1399,76 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="18" spans="3:5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:7">
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>40000</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>测试队友数目上限池子</t>
+  </si>
+  <si>
+    <t>40002</t>
   </si>
   <si>
     <t>4001</t>
@@ -1148,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1316,10 +1325,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="2"/>
@@ -1331,17 +1356,17 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
@@ -1357,17 +1382,17 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
@@ -1383,17 +1408,17 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
@@ -1414,17 +1439,17 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -1435,17 +1460,17 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>24</v>
@@ -1456,17 +1481,17 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>24</v>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>10010</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>人口 + 增加队友 测试 池子</t>
+  </si>
+  <si>
+    <t>60002,40002</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1495,6 +1504,27 @@
       </c>
       <c r="G23" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -43,15 +43,15 @@
     <t>describe</t>
   </si>
   <si>
+    <t>rewardIdList</t>
+  </si>
+  <si>
+    <t>rewardWeightList</t>
+  </si>
+  <si>
     <t>fixedRewardList</t>
   </si>
   <si>
-    <t>rewardIdList</t>
-  </si>
-  <si>
-    <t>rewardWeightList</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,13 +73,97 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>奖励id总列表</t>
+  </si>
+  <si>
+    <t>奖励权重</t>
+  </si>
+  <si>
     <t>固定奖励（一定产出）</t>
   </si>
   <si>
-    <t>奖励id总列表</t>
-  </si>
-  <si>
-    <t>权重</t>
+    <t>业务分类+等级（最后两位）</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>全通用</t>
+  </si>
+  <si>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
+  </si>
+  <si>
+    <t>100,30,30,60,5,30,15,15,15,15,120,40,15,20,5</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>通用技能池</t>
+  </si>
+  <si>
+    <t>100101,100201,100301</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>（待定）</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>通用道具装备池</t>
+  </si>
+  <si>
+    <t>300101,300201</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>通用英雄池</t>
+  </si>
+  <si>
+    <t>400101,400201,400301,400401,400501</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>通用队友池</t>
+  </si>
+  <si>
+    <t>500101</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>通用资源池</t>
+  </si>
+  <si>
+    <t>600101,600201,600301</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>通用关卡效果池</t>
+  </si>
+  <si>
+    <t>700101</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>新手固定技能池</t>
   </si>
   <si>
     <t>蓝技能池子</t>
@@ -1164,22 +1248,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1251,145 +1334,123 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" ht="54" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="3:5">
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="27" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="1" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1399,133 +1460,392 @@
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="1" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:7">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -94,7 +94,7 @@
     <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
   </si>
   <si>
-    <t>100,30,30,60,5,30,15,15,15,15,120,40,15,20,5</t>
+    <t>100,3000000,30,60,5,30,15,15,15,15,120,40,15,20,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1248,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1379,108 +1379,78 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="3:4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="27" spans="1:7">
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="1" spans="1:7">
+    <row r="16" customFormat="1" ht="27" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>25</v>
@@ -1490,16 +1460,16 @@
     <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>25</v>
@@ -1508,20 +1478,40 @@
     </row>
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="1" spans="1:7">
@@ -1535,12 +1525,8 @@
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1557,8 +1543,12 @@
     </row>
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1600,49 +1590,44 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
+    <row r="28" customFormat="1" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7">
@@ -1650,65 +1635,64 @@
       <c r="D32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="3:7">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="1" t="s">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>52</v>
@@ -1723,16 +1707,16 @@
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>52</v>
@@ -1744,18 +1728,19 @@
       <c r="D40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" customFormat="1" spans="1:7">
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>52</v>
@@ -1767,85 +1752,108 @@
       <c r="D42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="3:7">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" customFormat="1" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="50" customFormat="1" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+    <row r="49" customFormat="1" spans="1:7">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="1:7">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -94,7 +94,7 @@
     <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
   </si>
   <si>
-    <t>100,3000000,30,60,5,30,15,15,15,15,120,40,15,20,5</t>
+    <t>3000000,1,1,60,5,30,15,15,15,15,120,40,15,20,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890"/>
+    <workbookView windowWidth="16200" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
   </si>
   <si>
-    <t>3000000,1,1,60,5,30,15,15,15,15,120,40,15,20,5</t>
+    <t>1,1,1,1,1,30,15,15,15,15,120,300000,300000,300000,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
   </si>
   <si>
-    <t>1,1,1,1,1,30,15,15,15,15,120,300000,300000,300000,5</t>
+    <t>1,1,1,1,1,300000,300000,300000,300000,300000,120,30,30,30,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,600101,600201,600301,700101</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,300000,300000,300000,300000,300000,120,30,30,30,5</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,600201,600301</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,3000000,30,30,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="17430" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,600201,600301</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,3000000,30,30,5</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,400701,600201,600301</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,30,30,3000000,10,5</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,400701,600201,600301</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,30,30,3000000,10,5</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,400701,600201,600301,400801</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,3000000,1,1,1,1,1,30,30,1,10,5,3000000</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,600101,400701,600201,600301,400801</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,3000000,1,1,1,1,1,30,30,1,10,5,3000000</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,3000000,1,1,1,1,1,30,3000000,1,10,5,3,1</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17430" windowHeight="11430"/>
+    <workbookView windowWidth="19755" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,16 +85,16 @@
     <t>业务分类+等级（最后两位）</t>
   </si>
   <si>
-    <t>100101</t>
+    <t>1101</t>
   </si>
   <si>
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,3000000,1,1,1,1,1,30,3000000,1,10,5,3,1</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801,1000101</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,3,1,1,1,1,1,30,3,1,10,5,3,1,3000000</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1349,7 +1349,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="54" spans="1:6">
+    <row r="7" ht="67.5" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19755" windowHeight="11430"/>
+    <workbookView windowWidth="18120" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801,1000101</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,3,1,1,1,1,1,30,3,1,10,5,3,1,3000000</t>
+    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801,70101,1000101</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,3,1,1,1,1,1,30,3,1,10,5,3,1,3000000,1</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18120" windowHeight="11430"/>
+    <workbookView windowWidth="14685" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>全通用</t>
   </si>
   <si>
-    <t>100101,100201,100301,300101,300201,400101,400201,400301,400401,400501,500101,500201,500301,600101,400701,600201,600301,400801,70101,1000101</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,3,1,1,1,1,1,30,3,1,10,5,3,1,3000000,1</t>
+    <t>10101,10201,10301,30101,30201,40101,40201,40301,40401,40501,50101,50201,50301,60101,40701,60201,60301,40801,70101,1000101</t>
+  </si>
+  <si>
+    <t>1,1,1,3000000,1,3,1,1,1,1,1,30,3,1,10,5,3,1,1,1</t>
   </si>
   <si>
     <t>101</t>
@@ -1349,7 +1349,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="67.5" spans="1:6">
+    <row r="7" ht="54" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="10095"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>1,1,1,3000000,1,3,1,1,1,1,1,30,3,1,10,5,3,1,1,1</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>101</t>
@@ -1251,7 +1263,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1371,9 +1383,24 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="2"/>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="2"/>
@@ -1389,31 +1416,31 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1422,95 +1449,95 @@
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" customFormat="1" ht="27" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1544,10 +1571,10 @@
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
@@ -1613,16 +1640,16 @@
         <v>1000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="3:7">
@@ -1637,19 +1664,19 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -1665,37 +1692,37 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -1707,19 +1734,19 @@
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -1731,19 +1758,19 @@
     <row r="41" customFormat="1" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -1754,19 +1781,19 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -1782,76 +1809,76 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" customFormat="1" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="49" customFormat="1" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="52" customFormat="1" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G52" s="1"/>
     </row>

--- a/data_config/BattleRewardPool.xlsx
+++ b/data_config/BattleRewardPool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -88,6 +88,18 @@
     <t>1101</t>
   </si>
   <si>
+    <t>通用全随机宝箱（金币购买）</t>
+  </si>
+  <si>
+    <t>10101,30101,40101,40201,50101,60101</t>
+  </si>
+  <si>
+    <t>60,60,60,120,120,30</t>
+  </si>
+  <si>
+    <t>1101111111</t>
+  </si>
+  <si>
     <t>全通用</t>
   </si>
   <si>
@@ -97,16 +109,16 @@
     <t>1,1,1,3000000,1,3,1,1,1,1,1,30,3,1,10,5,3,1,1,1</t>
   </si>
   <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>1001101</t>
+  </si>
+  <si>
+    <t>关卡准备结算宝箱</t>
+  </si>
+  <si>
+    <t>10101,30101,40101</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
   </si>
   <si>
     <t>101</t>
@@ -1260,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1361,7 +1373,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="54" spans="1:6">
+    <row r="7" ht="27" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,14 +1391,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" ht="54" spans="1:7">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1402,9 +1417,26 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="2"/>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="2"/>
@@ -1414,25 +1446,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="1"/>
+    <row r="13" spans="3:4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1442,112 +1460,121 @@
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="1" ht="27" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" customFormat="1" spans="1:7">
+    <row r="17" customFormat="1" ht="27" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="1" spans="1:7">
@@ -1570,12 +1597,8 @@
     </row>
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1583,8 +1606,12 @@
     </row>
     <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1635,54 +1662,58 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1">
+    <row r="30" customFormat="1" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1">
         <v>1000</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="33" spans="3:7">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7">
@@ -1690,116 +1721,116 @@
       <c r="D35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="36" spans="3:7">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" customFormat="1" spans="1:7">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="39" spans="3:7">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="40" customFormat="1" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" customFormat="1" spans="1:7">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="41" spans="3:7">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+    <row r="42" customFormat="1" spans="1:7">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="43" spans="3:7">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="3:7">
@@ -1807,80 +1838,85 @@
       <c r="D45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="1" t="s">
+    <row r="46" spans="3:7">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" spans="1:7">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:7">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="53" customFormat="1" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:7">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:7">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
